--- a/artfynd/A 6703-2020.xlsx
+++ b/artfynd/A 6703-2020.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99486685</v>
+        <v>99519589</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>93235</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,39 +820,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Ornö, Srm</t>
+          <t>Norr om Varnö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>692892.0329120732</v>
+        <v>693062.2900751554</v>
       </c>
       <c r="R3" t="n">
-        <v>6549045.783047367</v>
+        <v>6549110.554353707</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -881,7 +879,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -891,7 +889,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>3 exemplar</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,22 +909,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99519589</v>
+        <v>99519598</v>
       </c>
       <c r="B4" t="n">
-        <v>93235</v>
+        <v>98520</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,21 +937,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +961,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693062.2900751554</v>
+        <v>693046.2694973514</v>
       </c>
       <c r="R4" t="n">
-        <v>6549110.554353707</v>
+        <v>6549110.77766049</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1004,11 +1007,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>3 exemplar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1035,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99505966</v>
+        <v>99504553</v>
       </c>
       <c r="B5" t="n">
-        <v>98520</v>
+        <v>57064</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1047,49 +1045,57 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222498</v>
+        <v>103055</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Storrum, Ornö, Srm</t>
+          <t>Risselrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>692884.3662214879</v>
+        <v>693113.6323470459</v>
       </c>
       <c r="R5" t="n">
-        <v>6549105.711763832</v>
+        <v>6549157.477006816</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1118,7 +1124,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,12 +1134,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Blåsippor i ett område om ca 20 m omkrets</t>
+          <t>Sjungande gulsparv</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1142,7 +1148,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1153,7 +1158,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Blandskog med inslag av gamla ekar</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1171,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99519600</v>
+        <v>99505564</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1183,41 +1188,53 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Srm</t>
+          <t>Risselrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>692872.8119970543</v>
+        <v>693074.6979561135</v>
       </c>
       <c r="R6" t="n">
-        <v>6549068.528527547</v>
+        <v>6549130.769313719</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1246,7 +1263,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1256,7 +1273,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Spillkråka observerades vid granlåga med färska hackspår</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,23 +1289,33 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99519598</v>
+        <v>99519597</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1323,10 +1355,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>693046.2694973514</v>
+        <v>693062.5255223531</v>
       </c>
       <c r="R7" t="n">
-        <v>6549110.77766049</v>
+        <v>6549177.581972098</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1395,10 +1427,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99519601</v>
+        <v>99519606</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>103813</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1407,25 +1439,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>220785</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1435,10 +1467,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>692865.2778250941</v>
+        <v>693083.1766483777</v>
       </c>
       <c r="R8" t="n">
-        <v>6549023.299178503</v>
+        <v>6549116.247088743</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1481,6 +1513,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Föryngring</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1507,10 +1544,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99505991</v>
+        <v>99486685</v>
       </c>
       <c r="B9" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1519,48 +1556,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Storrum, Ornö, Srm</t>
+          <t>Norr om Varnö, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>692873.4220747473</v>
+        <v>692892.0329120732</v>
       </c>
       <c r="R9" t="n">
-        <v>6549097.427865601</v>
+        <v>6549045.783047367</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1589,7 +1621,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1599,7 +1631,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1608,59 +1640,28 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>Växer på död tall</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på död tall</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99504553</v>
+        <v>99505966</v>
       </c>
       <c r="B10" t="n">
-        <v>57064</v>
+        <v>98520</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1669,57 +1670,49 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>103055</v>
+        <v>222498</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Risselrum, Ornö, Srm</t>
+          <t>Storrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>693113.6323470459</v>
+        <v>692884.3662214879</v>
       </c>
       <c r="R10" t="n">
-        <v>6549157.477006816</v>
+        <v>6549105.711763832</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1748,7 +1741,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1758,12 +1751,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Sjungande gulsparv</t>
+          <t>Blåsippor i ett område om ca 20 m omkrets</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1772,6 +1765,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1782,7 +1776,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Blandskog med inslag av gamla ekar</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1800,10 +1794,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99519607</v>
+        <v>99519600</v>
       </c>
       <c r="B11" t="n">
-        <v>103813</v>
+        <v>98520</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,25 +1806,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220785</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1840,10 +1834,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>692885.6932734415</v>
+        <v>692872.8119970543</v>
       </c>
       <c r="R11" t="n">
-        <v>6548966.588938461</v>
+        <v>6549068.528527547</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1886,11 +1880,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Föryngring</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1917,10 +1906,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99505564</v>
+        <v>99519601</v>
       </c>
       <c r="B12" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1929,53 +1918,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Risselrum, Ornö, Srm</t>
+          <t>Norr om Varnö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>693074.6979561135</v>
+        <v>692865.2778250941</v>
       </c>
       <c r="R12" t="n">
-        <v>6549130.769313719</v>
+        <v>6549023.299178503</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2004,7 +1981,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -2014,12 +1991,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Spillkråka observerades vid granlåga med färska hackspår</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2030,36 +2002,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99519597</v>
+        <v>99505991</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2068,41 +2030,48 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Srm</t>
+          <t>Storrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>693062.5255223531</v>
+        <v>692873.4220747473</v>
       </c>
       <c r="R13" t="n">
-        <v>6549177.581972098</v>
+        <v>6549097.427865601</v>
       </c>
       <c r="S13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2131,7 +2100,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2141,7 +2110,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2150,25 +2119,56 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Växer på död tall</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på död tall</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99519606</v>
+        <v>99519607</v>
       </c>
       <c r="B14" t="n">
         <v>103813</v>
@@ -2208,10 +2208,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>693083.1766483777</v>
+        <v>692885.6932734415</v>
       </c>
       <c r="R14" t="n">
-        <v>6549116.247088743</v>
+        <v>6548966.588938461</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>

--- a/artfynd/A 6703-2020.xlsx
+++ b/artfynd/A 6703-2020.xlsx
@@ -804,10 +804,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>99519589</v>
+        <v>99486685</v>
       </c>
       <c r="B3" t="n">
-        <v>93235</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -820,37 +820,39 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>210</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Buxbaumia viridis</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Srm</t>
+          <t>Norr om Varnö, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>693062.2900751554</v>
+        <v>692892.0329120732</v>
       </c>
       <c r="R3" t="n">
-        <v>6549110.554353707</v>
+        <v>6549045.783047367</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -879,7 +881,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -889,12 +891,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>3 exemplar</t>
+          <t>14:07</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,22 +906,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Kristina Bäck</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>99519598</v>
+        <v>99519589</v>
       </c>
       <c r="B4" t="n">
-        <v>98520</v>
+        <v>93235</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -937,21 +934,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222498</v>
+        <v>210</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Buxbaumia viridis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Moug. ex Lam. &amp; DC.) Brid. ex Moug. &amp; Nestl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -961,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>693046.2694973514</v>
+        <v>693062.2900751554</v>
       </c>
       <c r="R4" t="n">
-        <v>6549110.77766049</v>
+        <v>6549110.554353707</v>
       </c>
       <c r="S4" t="n">
         <v>20</v>
@@ -1007,6 +1004,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>3 exemplar</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1033,10 +1035,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>99504553</v>
+        <v>99505966</v>
       </c>
       <c r="B5" t="n">
-        <v>57064</v>
+        <v>98520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,57 +1047,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103055</v>
+        <v>222498</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Risselrum, Ornö, Srm</t>
+          <t>Storrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>693113.6323470459</v>
+        <v>692884.3662214879</v>
       </c>
       <c r="R5" t="n">
-        <v>6549157.477006816</v>
+        <v>6549105.711763832</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1124,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1134,12 +1128,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Sjungande gulsparv</t>
+          <t>Blåsippor i ett område om ca 20 m omkrets</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1148,6 +1142,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1158,7 +1153,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Blandskog med inslag av gamla ekar</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1176,10 +1171,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99505564</v>
+        <v>99519600</v>
       </c>
       <c r="B6" t="n">
-        <v>56411</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,53 +1183,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Risselrum, Ornö, Srm</t>
+          <t>Norr om Varnö, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>693074.6979561135</v>
+        <v>692872.8119970543</v>
       </c>
       <c r="R6" t="n">
-        <v>6549130.769313719</v>
+        <v>6549068.528527547</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1263,7 +1246,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1273,12 +1256,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Spillkråka observerades vid granlåga med färska hackspår</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1289,33 +1267,23 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>99519597</v>
+        <v>99519598</v>
       </c>
       <c r="B7" t="n">
         <v>98520</v>
@@ -1355,10 +1323,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>693062.5255223531</v>
+        <v>693046.2694973514</v>
       </c>
       <c r="R7" t="n">
-        <v>6549177.581972098</v>
+        <v>6549110.77766049</v>
       </c>
       <c r="S7" t="n">
         <v>20</v>
@@ -1427,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99519606</v>
+        <v>99519601</v>
       </c>
       <c r="B8" t="n">
-        <v>103813</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,25 +1407,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220785</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fraxinus excelsior</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1467,10 +1435,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>693083.1766483777</v>
+        <v>692865.2778250941</v>
       </c>
       <c r="R8" t="n">
-        <v>6549116.247088743</v>
+        <v>6549023.299178503</v>
       </c>
       <c r="S8" t="n">
         <v>20</v>
@@ -1513,11 +1481,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Föryngring</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1544,10 +1507,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>99486685</v>
+        <v>99505991</v>
       </c>
       <c r="B9" t="n">
-        <v>98520</v>
+        <v>89412</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1556,43 +1519,48 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Ornö, Srm</t>
+          <t>Storrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>692892.0329120732</v>
+        <v>692873.4220747473</v>
       </c>
       <c r="R9" t="n">
-        <v>6549045.783047367</v>
+        <v>6549097.427865601</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1621,7 +1589,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1631,7 +1599,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:07</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1640,28 +1608,59 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>Växer på död tall</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris # Växer på död tall</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristina Bäck</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99505966</v>
+        <v>99504553</v>
       </c>
       <c r="B10" t="n">
-        <v>98520</v>
+        <v>57064</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1670,49 +1669,57 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222498</v>
+        <v>103055</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Storrum, Ornö, Srm</t>
+          <t>Risselrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>692884.3662214879</v>
+        <v>693113.6323470459</v>
       </c>
       <c r="R10" t="n">
-        <v>6549105.711763832</v>
+        <v>6549157.477006816</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1741,7 +1748,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1751,12 +1758,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Blåsippor i ett område om ca 20 m omkrets</t>
+          <t>Sjungande gulsparv</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1765,7 +1772,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1776,7 +1782,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Blandskog med inslag av gamla ekar</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1794,10 +1800,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>99519600</v>
+        <v>99519607</v>
       </c>
       <c r="B11" t="n">
-        <v>98520</v>
+        <v>103813</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1806,25 +1812,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>220785</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Fraxinus excelsior</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1834,10 +1840,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>692872.8119970543</v>
+        <v>692885.6932734415</v>
       </c>
       <c r="R11" t="n">
-        <v>6549068.528527547</v>
+        <v>6548966.588938461</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1880,6 +1886,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Föryngring</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1906,10 +1917,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>99519601</v>
+        <v>99505564</v>
       </c>
       <c r="B12" t="n">
-        <v>98520</v>
+        <v>56411</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1918,41 +1929,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Norr om Varnö, Srm</t>
+          <t>Risselrum, Ornö, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>692865.2778250941</v>
+        <v>693074.6979561135</v>
       </c>
       <c r="R12" t="n">
-        <v>6549023.299178503</v>
+        <v>6549130.769313719</v>
       </c>
       <c r="S12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1981,7 +2004,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1991,7 +2014,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Spillkråka observerades vid granlåga med färska hackspår</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,26 +2030,36 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Amanda Tas</t>
+          <t>Michael Lander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>99505991</v>
+        <v>99519597</v>
       </c>
       <c r="B13" t="n">
-        <v>89412</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2030,48 +2068,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5442</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Storrum, Ornö, Srm</t>
+          <t>Norr om Varnö, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>692873.4220747473</v>
+        <v>693062.5255223531</v>
       </c>
       <c r="R13" t="n">
-        <v>6549097.427865601</v>
+        <v>6549177.581972098</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2100,7 +2131,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2110,7 +2141,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2119,56 +2150,25 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>Växer på död tall</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris # Växer på död tall</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Michael Lander</t>
+          <t>Amanda Tas</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>99519607</v>
+        <v>99519606</v>
       </c>
       <c r="B14" t="n">
         <v>103813</v>
@@ -2208,10 +2208,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>692885.6932734415</v>
+        <v>693083.1766483777</v>
       </c>
       <c r="R14" t="n">
-        <v>6548966.588938461</v>
+        <v>6549116.247088743</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
